--- a/tabulky/questions-answers-analysis.xlsx
+++ b/tabulky/questions-answers-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sladkydrevo/opt/baka/tabulky/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AE4B9F-857D-6C44-9FC2-C50EEB753AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1CF270-1FDD-4B40-B1EF-B2D507094273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CC8F25B5-6F88-FD4D-B1AA-F3AD62E27988}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27760" windowHeight="17500" xr2:uid="{CC8F25B5-6F88-FD4D-B1AA-F3AD62E27988}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -10937,7 +10937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -11202,77 +11202,71 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11601,10 +11595,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64400CA3-C962-5A45-96DE-CA18C5048EDF}">
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="50" zoomScaleNormal="58" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="W53" sqref="W53"/>
+      <selection pane="topRight" activeCell="W52" sqref="W52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.25"/>
@@ -11638,7 +11632,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="99" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -11653,38 +11647,38 @@
       <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:32" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="109"/>
+      <c r="B2" s="99"/>
       <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="96" t="s">
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
       <c r="AB2" s="73"/>
       <c r="AC2" s="73"/>
       <c r="AD2" s="73"/>
@@ -11696,34 +11690,34 @@
       <c r="C3" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="97" t="s">
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
       <c r="AB3" s="37"/>
       <c r="AC3" s="37"/>
       <c r="AD3" s="37"/>
@@ -11738,42 +11732,42 @@
       <c r="C4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97" t="s">
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97" t="s">
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97" t="s">
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="103" t="s">
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="105" t="s">
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="115"/>
       <c r="AB4" s="86"/>
       <c r="AC4" s="86"/>
       <c r="AD4" s="86"/>
@@ -11784,48 +11778,48 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="106" t="s">
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="102" t="s">
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="106" t="s">
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="102" t="s">
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="98" t="s">
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
       <c r="AB5" s="85"/>
       <c r="AC5" s="85"/>
       <c r="AD5" s="85"/>
@@ -11835,8 +11829,8 @@
       <c r="A6" s="14">
         <v>1.6</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="113"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="100"/>
       <c r="D6" s="15">
         <v>0.7</v>
       </c>
@@ -11919,48 +11913,48 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102" t="s">
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102" t="s">
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102" t="s">
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="106" t="s">
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="U7" s="106"/>
-      <c r="V7" s="106"/>
-      <c r="W7" s="106"/>
-      <c r="X7" s="99" t="s">
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="114" t="s">
         <v>115</v>
       </c>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="99"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
       <c r="AB7" s="85"/>
       <c r="AC7" s="85"/>
       <c r="AD7" s="85"/>
@@ -11970,8 +11964,8 @@
       <c r="A8" s="14">
         <v>1.5</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="110"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="15">
         <v>0.6</v>
       </c>
@@ -12054,48 +12048,48 @@
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107" t="s">
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="106" t="s">
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="102" t="s">
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="106" t="s">
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="99" t="s">
+      <c r="U9" s="103"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="99"/>
+      <c r="Y9" s="114"/>
+      <c r="Z9" s="114"/>
+      <c r="AA9" s="114"/>
       <c r="AB9" s="85"/>
       <c r="AC9" s="85"/>
       <c r="AD9" s="85"/>
@@ -12105,8 +12099,8 @@
       <c r="A10" s="31">
         <v>1.6</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="110"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="15">
         <v>0</v>
       </c>
@@ -12189,48 +12183,48 @@
       <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107" t="s">
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="106" t="s">
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="102" t="s">
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="106" t="s">
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="U11" s="106"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="98" t="s">
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="98"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
       <c r="AB11" s="85"/>
       <c r="AC11" s="85"/>
       <c r="AD11" s="85"/>
@@ -12240,8 +12234,8 @@
       <c r="A12" s="31">
         <v>1</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="110"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="15">
         <v>0</v>
       </c>
@@ -12324,48 +12318,48 @@
       <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="110" t="s">
+      <c r="C13" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104" t="s">
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104" t="s">
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104" t="s">
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104" t="s">
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="U13" s="104"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104" t="s">
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="104"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
       <c r="AB13" s="85"/>
       <c r="AC13" s="85"/>
       <c r="AD13" s="85"/>
@@ -12375,8 +12369,8 @@
       <c r="A14" s="14">
         <v>1.5</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="110"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="15">
         <v>0</v>
       </c>
@@ -12459,48 +12453,48 @@
       <c r="A15" s="4">
         <v>6</v>
       </c>
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107" t="s">
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="106" t="s">
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106" t="s">
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106" t="s">
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="U15" s="106"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="99" t="s">
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
+      <c r="W15" s="103"/>
+      <c r="X15" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="Y15" s="99"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="99"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="114"/>
       <c r="AB15" s="85"/>
       <c r="AC15" s="85"/>
       <c r="AD15" s="85"/>
@@ -12510,8 +12504,8 @@
       <c r="A16" s="14">
         <v>1</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="110"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="15">
         <v>0</v>
       </c>
@@ -12594,48 +12588,48 @@
       <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="95" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107" t="s">
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="106" t="s">
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106" t="s">
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="106"/>
-      <c r="T17" s="106" t="s">
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="U17" s="106"/>
-      <c r="V17" s="106"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="99" t="s">
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="99"/>
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="114"/>
+      <c r="AA17" s="114"/>
       <c r="AB17" s="85"/>
       <c r="AC17" s="85"/>
       <c r="AD17" s="85"/>
@@ -12645,7 +12639,7 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="111"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="72"/>
       <c r="D18" s="15">
         <v>0</v>
@@ -12729,48 +12723,48 @@
       <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="106" t="s">
+      <c r="D19" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="116" t="s">
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="106" t="s">
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106" t="s">
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="106" t="s">
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="103"/>
+      <c r="T19" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="U19" s="106"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="106"/>
-      <c r="X19" s="115" t="s">
+      <c r="U19" s="103"/>
+      <c r="V19" s="103"/>
+      <c r="W19" s="103"/>
+      <c r="X19" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="Y19" s="115"/>
-      <c r="Z19" s="115"/>
-      <c r="AA19" s="115"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="107"/>
       <c r="AB19" s="85"/>
       <c r="AC19" s="85"/>
       <c r="AD19" s="85"/>
@@ -12780,8 +12774,8 @@
       <c r="A20" s="14">
         <v>1.5</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="110"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="15">
         <v>1</v>
       </c>
@@ -12864,48 +12858,48 @@
       <c r="A21" s="4">
         <v>9</v>
       </c>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="110" t="s">
+      <c r="C21" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107" t="s">
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="102" t="s">
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="102" t="s">
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="102" t="s">
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="U21" s="102"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="102"/>
-      <c r="X21" s="98" t="s">
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="98"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="107"/>
       <c r="AB21" s="85"/>
       <c r="AC21" s="85"/>
       <c r="AD21" s="85"/>
@@ -12915,8 +12909,8 @@
       <c r="A22" s="14">
         <v>1.6</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="110"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="15">
         <v>0.2</v>
       </c>
@@ -12999,48 +12993,48 @@
       <c r="A23" s="4">
         <v>10</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="106" t="s">
+      <c r="D23" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106" t="s">
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="102" t="s">
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="106" t="s">
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="102" t="s">
+      <c r="Q23" s="103"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="U23" s="102"/>
-      <c r="V23" s="102"/>
-      <c r="W23" s="102"/>
-      <c r="X23" s="99" t="s">
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="99"/>
+      <c r="Y23" s="114"/>
+      <c r="Z23" s="114"/>
+      <c r="AA23" s="114"/>
       <c r="AB23" s="85"/>
       <c r="AC23" s="85"/>
       <c r="AD23" s="85"/>
@@ -13050,8 +13044,8 @@
       <c r="A24" s="14">
         <v>1.5</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="110"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="15">
         <v>1</v>
       </c>
@@ -13134,48 +13128,48 @@
       <c r="A25" s="4">
         <v>11</v>
       </c>
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="110" t="s">
+      <c r="C25" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107" t="s">
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="106" t="s">
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106" t="s">
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="106" t="s">
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="U25" s="106"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="98" t="s">
+      <c r="U25" s="103"/>
+      <c r="V25" s="103"/>
+      <c r="W25" s="103"/>
+      <c r="X25" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="107"/>
       <c r="AB25" s="85"/>
       <c r="AC25" s="85"/>
       <c r="AD25" s="85"/>
@@ -13185,8 +13179,8 @@
       <c r="A26" s="14">
         <v>1.5</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="110"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="94"/>
       <c r="D26" s="15">
         <v>0.9</v>
       </c>
@@ -13269,48 +13263,48 @@
       <c r="A27" s="4">
         <v>12</v>
       </c>
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="110" t="s">
+      <c r="C27" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107" t="s">
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="102" t="s">
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="M27" s="102"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="102"/>
-      <c r="P27" s="106" t="s">
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="103" t="s">
         <v>153</v>
       </c>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="102" t="s">
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="U27" s="102"/>
-      <c r="V27" s="102"/>
-      <c r="W27" s="102"/>
-      <c r="X27" s="98" t="s">
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="98"/>
+      <c r="Y27" s="107"/>
+      <c r="Z27" s="107"/>
+      <c r="AA27" s="107"/>
       <c r="AB27" s="85"/>
       <c r="AC27" s="85"/>
       <c r="AD27" s="85"/>
@@ -13320,8 +13314,8 @@
       <c r="A28" s="14">
         <v>1.5</v>
       </c>
-      <c r="B28" s="111"/>
-      <c r="C28" s="110"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="15">
         <v>0.3</v>
       </c>
@@ -13404,48 +13398,48 @@
       <c r="A29" s="4">
         <v>13</v>
       </c>
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="110" t="s">
+      <c r="C29" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="106" t="s">
+      <c r="D29" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106" t="s">
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="102" t="s">
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="M29" s="102"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="102" t="s">
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="102" t="s">
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="U29" s="102"/>
-      <c r="V29" s="102"/>
-      <c r="W29" s="102"/>
-      <c r="X29" s="98" t="s">
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="98"/>
+      <c r="Y29" s="107"/>
+      <c r="Z29" s="107"/>
+      <c r="AA29" s="107"/>
       <c r="AB29" s="85"/>
       <c r="AC29" s="85"/>
       <c r="AD29" s="85"/>
@@ -13455,8 +13449,8 @@
       <c r="A30" s="14">
         <v>1.5</v>
       </c>
-      <c r="B30" s="111"/>
-      <c r="C30" s="110"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="94"/>
       <c r="D30" s="15">
         <v>1</v>
       </c>
@@ -13539,48 +13533,48 @@
       <c r="A31" s="4">
         <v>14</v>
       </c>
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="106" t="s">
+      <c r="D31" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106" t="s">
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106" t="s">
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="102" t="s">
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="102"/>
-      <c r="S31" s="102"/>
-      <c r="T31" s="106" t="s">
+      <c r="Q31" s="104"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="U31" s="106"/>
-      <c r="V31" s="106"/>
-      <c r="W31" s="106"/>
-      <c r="X31" s="99" t="s">
+      <c r="U31" s="103"/>
+      <c r="V31" s="103"/>
+      <c r="W31" s="103"/>
+      <c r="X31" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="Y31" s="99"/>
-      <c r="Z31" s="99"/>
-      <c r="AA31" s="99"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="114"/>
+      <c r="AA31" s="114"/>
       <c r="AB31" s="85"/>
       <c r="AC31" s="85"/>
       <c r="AD31" s="85"/>
@@ -13590,8 +13584,8 @@
       <c r="A32" s="14">
         <v>1.6</v>
       </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="110"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="94"/>
       <c r="D32" s="15">
         <v>1</v>
       </c>
@@ -13674,48 +13668,48 @@
       <c r="A33" s="4">
         <v>15</v>
       </c>
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="110" t="s">
+      <c r="C33" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="106" t="s">
+      <c r="D33" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106" t="s">
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106" t="s">
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="106"/>
-      <c r="P33" s="106" t="s">
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="Q33" s="106"/>
-      <c r="R33" s="106"/>
-      <c r="S33" s="106"/>
-      <c r="T33" s="106" t="s">
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="U33" s="106"/>
-      <c r="V33" s="106"/>
-      <c r="W33" s="106"/>
-      <c r="X33" s="99" t="s">
+      <c r="U33" s="103"/>
+      <c r="V33" s="103"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="Y33" s="99"/>
-      <c r="Z33" s="99"/>
-      <c r="AA33" s="99"/>
+      <c r="Y33" s="114"/>
+      <c r="Z33" s="114"/>
+      <c r="AA33" s="114"/>
       <c r="AB33" s="85"/>
       <c r="AC33" s="85"/>
       <c r="AD33" s="85"/>
@@ -13725,8 +13719,8 @@
       <c r="A34" s="14">
         <v>1.6</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="110"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="94"/>
       <c r="D34" s="15">
         <v>1</v>
       </c>
@@ -13809,48 +13803,48 @@
       <c r="A35" s="4">
         <v>16</v>
       </c>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="110" t="s">
+      <c r="C35" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="106" t="s">
+      <c r="D35" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="102" t="s">
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="I35" s="102"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="102"/>
-      <c r="L35" s="106" t="s">
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="106"/>
-      <c r="P35" s="102" t="s">
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="Q35" s="102"/>
-      <c r="R35" s="102"/>
-      <c r="S35" s="102"/>
-      <c r="T35" s="102" t="s">
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="104"/>
+      <c r="T35" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="U35" s="102"/>
-      <c r="V35" s="102"/>
-      <c r="W35" s="102"/>
-      <c r="X35" s="98" t="s">
+      <c r="U35" s="104"/>
+      <c r="V35" s="104"/>
+      <c r="W35" s="104"/>
+      <c r="X35" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="Y35" s="98"/>
-      <c r="Z35" s="98"/>
-      <c r="AA35" s="98"/>
+      <c r="Y35" s="107"/>
+      <c r="Z35" s="107"/>
+      <c r="AA35" s="107"/>
       <c r="AB35" s="85"/>
       <c r="AC35" s="85"/>
       <c r="AD35" s="85"/>
@@ -13860,8 +13854,8 @@
       <c r="A36" s="14">
         <v>1.5</v>
       </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="110"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="94"/>
       <c r="D36" s="15">
         <v>1</v>
       </c>
@@ -13944,48 +13938,48 @@
       <c r="A37" s="4">
         <v>17</v>
       </c>
-      <c r="B37" s="111" t="s">
+      <c r="B37" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="110" t="s">
+      <c r="C37" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="107" t="s">
+      <c r="D37" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107" t="s">
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="102" t="s">
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="M37" s="102"/>
-      <c r="N37" s="102"/>
-      <c r="O37" s="102"/>
-      <c r="P37" s="102" t="s">
+      <c r="M37" s="104"/>
+      <c r="N37" s="104"/>
+      <c r="O37" s="104"/>
+      <c r="P37" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="102"/>
-      <c r="S37" s="102"/>
-      <c r="T37" s="102" t="s">
+      <c r="Q37" s="104"/>
+      <c r="R37" s="104"/>
+      <c r="S37" s="104"/>
+      <c r="T37" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="U37" s="102"/>
-      <c r="V37" s="102"/>
-      <c r="W37" s="102"/>
-      <c r="X37" s="98" t="s">
+      <c r="U37" s="104"/>
+      <c r="V37" s="104"/>
+      <c r="W37" s="104"/>
+      <c r="X37" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="Y37" s="98"/>
-      <c r="Z37" s="98"/>
-      <c r="AA37" s="98"/>
+      <c r="Y37" s="107"/>
+      <c r="Z37" s="107"/>
+      <c r="AA37" s="107"/>
       <c r="AB37" s="85"/>
       <c r="AC37" s="85"/>
       <c r="AD37" s="85"/>
@@ -13995,8 +13989,8 @@
       <c r="A38" s="31">
         <v>1.6</v>
       </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="110"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="94"/>
       <c r="D38" s="15">
         <v>0</v>
       </c>
@@ -14079,48 +14073,48 @@
       <c r="A39" s="4">
         <v>18</v>
       </c>
-      <c r="B39" s="111" t="s">
+      <c r="B39" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="110" t="s">
+      <c r="C39" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="107" t="s">
+      <c r="D39" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107" t="s">
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
-      <c r="L39" s="102" t="s">
+      <c r="I39" s="101"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="M39" s="102"/>
-      <c r="N39" s="102"/>
-      <c r="O39" s="102"/>
-      <c r="P39" s="102" t="s">
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="104"/>
+      <c r="P39" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="Q39" s="102"/>
-      <c r="R39" s="102"/>
-      <c r="S39" s="102"/>
-      <c r="T39" s="102" t="s">
+      <c r="Q39" s="104"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="104"/>
+      <c r="T39" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="U39" s="102"/>
-      <c r="V39" s="102"/>
-      <c r="W39" s="102"/>
-      <c r="X39" s="98" t="s">
+      <c r="U39" s="104"/>
+      <c r="V39" s="104"/>
+      <c r="W39" s="104"/>
+      <c r="X39" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="Y39" s="98"/>
-      <c r="Z39" s="98"/>
-      <c r="AA39" s="98"/>
+      <c r="Y39" s="107"/>
+      <c r="Z39" s="107"/>
+      <c r="AA39" s="107"/>
       <c r="AB39" s="85"/>
       <c r="AC39" s="85"/>
       <c r="AD39" s="85"/>
@@ -14130,8 +14124,8 @@
       <c r="A40" s="31">
         <v>1.6</v>
       </c>
-      <c r="B40" s="111"/>
-      <c r="C40" s="110"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="94"/>
       <c r="D40" s="15">
         <v>0</v>
       </c>
@@ -14214,48 +14208,48 @@
       <c r="A41" s="4">
         <v>19</v>
       </c>
-      <c r="B41" s="111" t="s">
+      <c r="B41" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="107" t="s">
+      <c r="D41" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107" t="s">
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="102" t="s">
+      <c r="I41" s="101"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="M41" s="102"/>
-      <c r="N41" s="102"/>
-      <c r="O41" s="102"/>
-      <c r="P41" s="106" t="s">
+      <c r="M41" s="104"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="104"/>
+      <c r="P41" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="Q41" s="106"/>
-      <c r="R41" s="106"/>
-      <c r="S41" s="106"/>
-      <c r="T41" s="106" t="s">
+      <c r="Q41" s="103"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="103"/>
+      <c r="T41" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="U41" s="106"/>
-      <c r="V41" s="106"/>
-      <c r="W41" s="106"/>
-      <c r="X41" s="99" t="s">
+      <c r="U41" s="103"/>
+      <c r="V41" s="103"/>
+      <c r="W41" s="103"/>
+      <c r="X41" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="Y41" s="99"/>
-      <c r="Z41" s="99"/>
-      <c r="AA41" s="99"/>
+      <c r="Y41" s="114"/>
+      <c r="Z41" s="114"/>
+      <c r="AA41" s="114"/>
       <c r="AB41" s="85"/>
       <c r="AC41" s="85"/>
       <c r="AD41" s="85"/>
@@ -14265,8 +14259,8 @@
       <c r="A42" s="31">
         <v>1.5</v>
       </c>
-      <c r="B42" s="111"/>
-      <c r="C42" s="110"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="94"/>
       <c r="D42" s="15">
         <v>0</v>
       </c>
@@ -14349,48 +14343,48 @@
       <c r="A43" s="4">
         <v>20</v>
       </c>
-      <c r="B43" s="111" t="s">
+      <c r="B43" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="110" t="s">
+      <c r="C43" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="106" t="s">
+      <c r="D43" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="102" t="s">
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="I43" s="102"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="102"/>
-      <c r="L43" s="102" t="s">
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="M43" s="102"/>
-      <c r="N43" s="102"/>
-      <c r="O43" s="102"/>
-      <c r="P43" s="102" t="s">
+      <c r="M43" s="104"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="104"/>
+      <c r="P43" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="Q43" s="102"/>
-      <c r="R43" s="102"/>
-      <c r="S43" s="102"/>
-      <c r="T43" s="102" t="s">
+      <c r="Q43" s="104"/>
+      <c r="R43" s="104"/>
+      <c r="S43" s="104"/>
+      <c r="T43" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="U43" s="102"/>
-      <c r="V43" s="102"/>
-      <c r="W43" s="102"/>
-      <c r="X43" s="98" t="s">
+      <c r="U43" s="104"/>
+      <c r="V43" s="104"/>
+      <c r="W43" s="104"/>
+      <c r="X43" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="Y43" s="98"/>
-      <c r="Z43" s="98"/>
-      <c r="AA43" s="98"/>
+      <c r="Y43" s="107"/>
+      <c r="Z43" s="107"/>
+      <c r="AA43" s="107"/>
       <c r="AB43" s="85"/>
       <c r="AC43" s="85"/>
       <c r="AD43" s="85"/>
@@ -14400,8 +14394,8 @@
       <c r="A44" s="31">
         <v>1.6</v>
       </c>
-      <c r="B44" s="111"/>
-      <c r="C44" s="110"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="94"/>
       <c r="D44" s="15">
         <v>1</v>
       </c>
@@ -14592,48 +14586,48 @@
       <c r="C46" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="94">
+      <c r="D46" s="110">
         <f>SUM(D45:G45)</f>
         <v>14</v>
       </c>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="94">
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="110">
         <f t="shared" ref="H46" si="21">SUM(H45:K45)</f>
         <v>13.2</v>
       </c>
-      <c r="I46" s="101"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="94">
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="110">
         <f t="shared" ref="L46" si="22">SUM(L45:O45)</f>
         <v>17.900000000000002</v>
       </c>
-      <c r="M46" s="101"/>
-      <c r="N46" s="101"/>
-      <c r="O46" s="101"/>
-      <c r="P46" s="94">
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="110">
         <f t="shared" ref="P46" si="23">SUM(P45:S45)</f>
         <v>18.599999999999998</v>
       </c>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="101"/>
-      <c r="S46" s="101"/>
-      <c r="T46" s="94">
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="111"/>
+      <c r="T46" s="110">
         <f t="shared" ref="T46" si="24">SUM(T45:W45)</f>
         <v>18.400000000000002</v>
       </c>
-      <c r="U46" s="94"/>
-      <c r="V46" s="94"/>
-      <c r="W46" s="94"/>
-      <c r="X46" s="94">
+      <c r="U46" s="110"/>
+      <c r="V46" s="110"/>
+      <c r="W46" s="110"/>
+      <c r="X46" s="110">
         <f t="shared" ref="X46" si="25">SUM(X45:AA45)</f>
         <v>16.400000000000002</v>
       </c>
-      <c r="Y46" s="94"/>
-      <c r="Z46" s="94"/>
-      <c r="AA46" s="94"/>
+      <c r="Y46" s="110"/>
+      <c r="Z46" s="110"/>
+      <c r="AA46" s="110"/>
       <c r="AB46" s="83"/>
       <c r="AC46" s="83"/>
       <c r="AD46" s="83"/>
@@ -14646,51 +14640,50 @@
         <v>62</v>
       </c>
       <c r="C47" s="70">
-        <f>SUM(A44,A42,A40,A38,A36,A34,A32,A30,A28,A26,A24,A22,A20,A18,A16,A14,A12,A10,A8,A6)</f>
-        <v>29.300000000000004</v>
-      </c>
-      <c r="D47" s="95">
+        <v>20.8</v>
+      </c>
+      <c r="D47" s="108">
         <f>D46/C47</f>
-        <v>0.47781569965870302</v>
-      </c>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108">
         <f>H46/C47</f>
-        <v>0.4505119453924914</v>
-      </c>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="95">
+        <v>0.63461538461538458</v>
+      </c>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="L47" s="108">
         <f>L46/C47</f>
-        <v>0.61092150170648463</v>
-      </c>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="95">
+        <v>0.86057692307692313</v>
+      </c>
+      <c r="M47" s="108"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="108"/>
+      <c r="P47" s="108">
         <f>P46/C47</f>
-        <v>0.63481228668941958</v>
-      </c>
-      <c r="Q47" s="95"/>
-      <c r="R47" s="95"/>
-      <c r="S47" s="95"/>
-      <c r="T47" s="100">
+        <v>0.89423076923076905</v>
+      </c>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="108"/>
+      <c r="T47" s="109">
         <f>T46/C47</f>
-        <v>0.62798634812286691</v>
-      </c>
-      <c r="U47" s="100"/>
-      <c r="V47" s="100"/>
-      <c r="W47" s="100"/>
-      <c r="X47" s="95">
+        <v>0.88461538461538469</v>
+      </c>
+      <c r="U47" s="109"/>
+      <c r="V47" s="109"/>
+      <c r="W47" s="109"/>
+      <c r="X47" s="108">
         <f>X46/C47</f>
-        <v>0.55972696245733788</v>
-      </c>
-      <c r="Y47" s="95"/>
-      <c r="Z47" s="95"/>
-      <c r="AA47" s="95"/>
+        <v>0.78846153846153855</v>
+      </c>
+      <c r="Y47" s="108"/>
+      <c r="Z47" s="108"/>
+      <c r="AA47" s="108"/>
       <c r="AB47" s="84"/>
       <c r="AC47" s="84"/>
       <c r="AD47" s="84"/>
@@ -14698,11 +14691,11 @@
       <c r="AF47"/>
     </row>
     <row r="48" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G48" s="112"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="112"/>
-      <c r="J48" s="112"/>
-      <c r="K48" s="112"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="98"/>
       <c r="L48" s="12"/>
       <c r="M48" s="21"/>
       <c r="N48" s="23"/>
@@ -14798,7 +14791,7 @@
       <c r="AA51" s="53"/>
     </row>
     <row r="52" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C52" s="117" t="s">
+      <c r="C52" s="97" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="76" t="s">
@@ -14826,7 +14819,7 @@
       </c>
       <c r="J52" s="82">
         <f>D47</f>
-        <v>0.47781569965870302</v>
+        <v>0.67307692307692302</v>
       </c>
       <c r="K52" s="51"/>
       <c r="L52" s="54"/>
@@ -14843,7 +14836,7 @@
       <c r="AA52" s="53"/>
     </row>
     <row r="53" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C53" s="117"/>
+      <c r="C53" s="97"/>
       <c r="D53" s="76" t="s">
         <v>31</v>
       </c>
@@ -14869,7 +14862,7 @@
       </c>
       <c r="J53" s="82">
         <f>H47</f>
-        <v>0.4505119453924914</v>
+        <v>0.63461538461538458</v>
       </c>
       <c r="K53" s="51"/>
       <c r="L53" s="52"/>
@@ -14886,7 +14879,7 @@
       <c r="AA53" s="53"/>
     </row>
     <row r="54" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C54" s="117" t="s">
+      <c r="C54" s="97" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="76" t="s">
@@ -14914,7 +14907,7 @@
       </c>
       <c r="J54" s="82">
         <f>L47</f>
-        <v>0.61092150170648463</v>
+        <v>0.86057692307692313</v>
       </c>
       <c r="K54" s="51"/>
       <c r="L54" s="54"/>
@@ -14931,7 +14924,7 @@
       <c r="AA54" s="53"/>
     </row>
     <row r="55" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C55" s="117"/>
+      <c r="C55" s="97"/>
       <c r="D55" s="76" t="s">
         <v>31</v>
       </c>
@@ -14957,7 +14950,7 @@
       </c>
       <c r="J55" s="82">
         <f>P47</f>
-        <v>0.63481228668941958</v>
+        <v>0.89423076923076905</v>
       </c>
       <c r="K55" s="51"/>
       <c r="L55" s="52"/>
@@ -15054,7 +15047,7 @@
       <c r="AA58" s="53"/>
     </row>
     <row r="59" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C59" s="117" t="s">
+      <c r="C59" s="97" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="76" t="s">
@@ -15082,7 +15075,7 @@
       </c>
       <c r="J59" s="82">
         <f>T47</f>
-        <v>0.62798634812286691</v>
+        <v>0.88461538461538469</v>
       </c>
       <c r="K59" s="51"/>
       <c r="L59" s="52"/>
@@ -15099,7 +15092,7 @@
       <c r="AA59" s="53"/>
     </row>
     <row r="60" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C60" s="117"/>
+      <c r="C60" s="97"/>
       <c r="D60" s="76" t="s">
         <v>31</v>
       </c>
@@ -15125,7 +15118,7 @@
       </c>
       <c r="J60" s="82">
         <f>X47</f>
-        <v>0.55972696245733788</v>
+        <v>0.78846153846153855</v>
       </c>
       <c r="K60" s="51"/>
       <c r="L60" s="52"/>
@@ -15319,6 +15312,168 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="186">
+    <mergeCell ref="X46:AA46"/>
+    <mergeCell ref="X47:AA47"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="L3:AA3"/>
+    <mergeCell ref="X35:AA35"/>
+    <mergeCell ref="X37:AA37"/>
+    <mergeCell ref="X39:AA39"/>
+    <mergeCell ref="X41:AA41"/>
+    <mergeCell ref="X43:AA43"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="X31:AA31"/>
+    <mergeCell ref="X33:AA33"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="X23:AA23"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D2:S2"/>
@@ -15343,168 +15498,6 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="X46:AA46"/>
-    <mergeCell ref="X47:AA47"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="L3:AA3"/>
-    <mergeCell ref="X35:AA35"/>
-    <mergeCell ref="X37:AA37"/>
-    <mergeCell ref="X39:AA39"/>
-    <mergeCell ref="X41:AA41"/>
-    <mergeCell ref="X43:AA43"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="X33:AA33"/>
-    <mergeCell ref="X15:AA15"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="X23:AA23"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="X9:AA9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tabulky/questions-answers-analysis.xlsx
+++ b/tabulky/questions-answers-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sladkydrevo/opt/baka/tabulky/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1CF270-1FDD-4B40-B1EF-B2D507094273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8067DD0B-FD6A-AC40-B471-69E6D02B7C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27760" windowHeight="17500" xr2:uid="{CC8F25B5-6F88-FD4D-B1AA-F3AD62E27988}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{CC8F25B5-6F88-FD4D-B1AA-F3AD62E27988}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="175">
   <si>
     <t>Otázka</t>
   </si>
@@ -10370,6 +10370,9 @@
       </rPr>
       <t>."</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -11202,7 +11205,55 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11219,54 +11270,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11595,10 +11598,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64400CA3-C962-5A45-96DE-CA18C5048EDF}">
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="50" zoomScaleNormal="58" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="50" zoomScaleNormal="58" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="W52" sqref="W52"/>
+      <selection pane="topRight" activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.25"/>
@@ -11632,7 +11635,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="115" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -11647,38 +11650,38 @@
       <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:32" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="99"/>
+      <c r="B2" s="115"/>
       <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="113" t="s">
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
       <c r="AB2" s="73"/>
       <c r="AC2" s="73"/>
       <c r="AD2" s="73"/>
@@ -11690,34 +11693,34 @@
       <c r="C3" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="105" t="s">
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
       <c r="AB3" s="37"/>
       <c r="AC3" s="37"/>
       <c r="AD3" s="37"/>
@@ -11732,42 +11735,42 @@
       <c r="C4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105" t="s">
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105" t="s">
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="112" t="s">
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="115" t="s">
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
       <c r="AB4" s="86"/>
       <c r="AC4" s="86"/>
       <c r="AD4" s="86"/>
@@ -11778,48 +11781,48 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="103" t="s">
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="104" t="s">
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="103" t="s">
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="104" t="s">
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="107" t="s">
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="98"/>
       <c r="AB5" s="85"/>
       <c r="AC5" s="85"/>
       <c r="AD5" s="85"/>
@@ -11829,8 +11832,8 @@
       <c r="A6" s="14">
         <v>1.6</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="100"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="15">
         <v>0.7</v>
       </c>
@@ -11913,48 +11916,48 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104" t="s">
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104" t="s">
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104" t="s">
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="103" t="s">
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="114" t="s">
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="114"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="99"/>
+      <c r="AA7" s="99"/>
       <c r="AB7" s="85"/>
       <c r="AC7" s="85"/>
       <c r="AD7" s="85"/>
@@ -11964,8 +11967,8 @@
       <c r="A8" s="14">
         <v>1.5</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="94"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="109"/>
       <c r="D8" s="15">
         <v>0.6</v>
       </c>
@@ -12048,48 +12051,48 @@
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101" t="s">
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="103" t="s">
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="104" t="s">
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="103" t="s">
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="114" t="s">
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="114"/>
-      <c r="Z9" s="114"/>
-      <c r="AA9" s="114"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
       <c r="AB9" s="85"/>
       <c r="AC9" s="85"/>
       <c r="AD9" s="85"/>
@@ -12099,8 +12102,8 @@
       <c r="A10" s="31">
         <v>1.6</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="94"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="15">
         <v>0</v>
       </c>
@@ -12183,48 +12186,48 @@
       <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101" t="s">
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="103" t="s">
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="104" t="s">
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="103" t="s">
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="107" t="s">
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="107"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
       <c r="AB11" s="85"/>
       <c r="AC11" s="85"/>
       <c r="AD11" s="85"/>
@@ -12234,8 +12237,8 @@
       <c r="A12" s="31">
         <v>1</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="94"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="15">
         <v>0</v>
       </c>
@@ -12318,48 +12321,48 @@
       <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102" t="s">
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102" t="s">
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102" t="s">
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102" t="s">
+      <c r="Q13" s="105"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102" t="s">
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="Y13" s="102"/>
-      <c r="Z13" s="102"/>
-      <c r="AA13" s="102"/>
+      <c r="Y13" s="105"/>
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="105"/>
       <c r="AB13" s="85"/>
       <c r="AC13" s="85"/>
       <c r="AD13" s="85"/>
@@ -12369,8 +12372,8 @@
       <c r="A14" s="14">
         <v>1.5</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="94"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="15">
         <v>0</v>
       </c>
@@ -12453,48 +12456,48 @@
       <c r="A15" s="4">
         <v>6</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="101" t="s">
+      <c r="D15" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101" t="s">
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="103" t="s">
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103" t="s">
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103" t="s">
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
-      <c r="W15" s="103"/>
-      <c r="X15" s="114" t="s">
+      <c r="U15" s="106"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="Y15" s="114"/>
-      <c r="Z15" s="114"/>
-      <c r="AA15" s="114"/>
+      <c r="Y15" s="99"/>
+      <c r="Z15" s="99"/>
+      <c r="AA15" s="99"/>
       <c r="AB15" s="85"/>
       <c r="AC15" s="85"/>
       <c r="AD15" s="85"/>
@@ -12504,8 +12507,8 @@
       <c r="A16" s="14">
         <v>1</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="94"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="15">
         <v>0</v>
       </c>
@@ -12588,48 +12591,48 @@
       <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="111" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101" t="s">
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="103" t="s">
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103" t="s">
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103" t="s">
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="114" t="s">
+      <c r="U17" s="106"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="Y17" s="114"/>
-      <c r="Z17" s="114"/>
-      <c r="AA17" s="114"/>
+      <c r="Y17" s="99"/>
+      <c r="Z17" s="99"/>
+      <c r="AA17" s="99"/>
       <c r="AB17" s="85"/>
       <c r="AC17" s="85"/>
       <c r="AD17" s="85"/>
@@ -12639,7 +12642,7 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="72"/>
       <c r="D18" s="15">
         <v>0</v>
@@ -12723,48 +12726,48 @@
       <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="103" t="s">
+      <c r="D19" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="104" t="s">
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="103" t="s">
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="103" t="s">
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="103"/>
-      <c r="S19" s="103"/>
-      <c r="T19" s="103" t="s">
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="103"/>
-      <c r="X19" s="107" t="s">
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="106"/>
+      <c r="X19" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="107"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
       <c r="AB19" s="85"/>
       <c r="AC19" s="85"/>
       <c r="AD19" s="85"/>
@@ -12774,8 +12777,8 @@
       <c r="A20" s="14">
         <v>1.5</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="94"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="15">
         <v>1</v>
       </c>
@@ -12858,48 +12861,48 @@
       <c r="A21" s="4">
         <v>9</v>
       </c>
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101" t="s">
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="104" t="s">
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104" t="s">
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104" t="s">
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="107" t="s">
+      <c r="U21" s="103"/>
+      <c r="V21" s="103"/>
+      <c r="W21" s="103"/>
+      <c r="X21" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="107"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
       <c r="AB21" s="85"/>
       <c r="AC21" s="85"/>
       <c r="AD21" s="85"/>
@@ -12909,8 +12912,8 @@
       <c r="A22" s="14">
         <v>1.6</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="15">
         <v>0.2</v>
       </c>
@@ -12993,48 +12996,48 @@
       <c r="A23" s="4">
         <v>10</v>
       </c>
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="103" t="s">
+      <c r="D23" s="106" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103" t="s">
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="104" t="s">
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="103" t="s">
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="103"/>
-      <c r="S23" s="103"/>
-      <c r="T23" s="104" t="s">
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="U23" s="104"/>
-      <c r="V23" s="104"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="114" t="s">
+      <c r="U23" s="103"/>
+      <c r="V23" s="103"/>
+      <c r="W23" s="103"/>
+      <c r="X23" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="Y23" s="114"/>
-      <c r="Z23" s="114"/>
-      <c r="AA23" s="114"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="99"/>
       <c r="AB23" s="85"/>
       <c r="AC23" s="85"/>
       <c r="AD23" s="85"/>
@@ -13044,8 +13047,8 @@
       <c r="A24" s="14">
         <v>1.5</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="94"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="15">
         <v>1</v>
       </c>
@@ -13128,48 +13131,48 @@
       <c r="A25" s="4">
         <v>11</v>
       </c>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="94" t="s">
+      <c r="C25" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101" t="s">
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="103" t="s">
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103" t="s">
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103" t="s">
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="106"/>
+      <c r="T25" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="U25" s="103"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="103"/>
-      <c r="X25" s="107" t="s">
+      <c r="U25" s="106"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="106"/>
+      <c r="X25" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="107"/>
-      <c r="AA25" s="107"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
       <c r="AB25" s="85"/>
       <c r="AC25" s="85"/>
       <c r="AD25" s="85"/>
@@ -13179,8 +13182,8 @@
       <c r="A26" s="14">
         <v>1.5</v>
       </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="94"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="15">
         <v>0.9</v>
       </c>
@@ -13263,48 +13266,48 @@
       <c r="A27" s="4">
         <v>12</v>
       </c>
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101" t="s">
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="104" t="s">
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="M27" s="104"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="103" t="s">
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="104" t="s">
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="U27" s="104"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="107" t="s">
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
+      <c r="X27" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="Y27" s="107"/>
-      <c r="Z27" s="107"/>
-      <c r="AA27" s="107"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
       <c r="AB27" s="85"/>
       <c r="AC27" s="85"/>
       <c r="AD27" s="85"/>
@@ -13314,8 +13317,8 @@
       <c r="A28" s="14">
         <v>1.5</v>
       </c>
-      <c r="B28" s="95"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="15">
         <v>0.3</v>
       </c>
@@ -13398,48 +13401,48 @@
       <c r="A29" s="4">
         <v>13</v>
       </c>
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="103" t="s">
+      <c r="D29" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103" t="s">
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="104" t="s">
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="M29" s="104"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104" t="s">
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104" t="s">
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="U29" s="104"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="107" t="s">
+      <c r="U29" s="103"/>
+      <c r="V29" s="103"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="Y29" s="107"/>
-      <c r="Z29" s="107"/>
-      <c r="AA29" s="107"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
       <c r="AB29" s="85"/>
       <c r="AC29" s="85"/>
       <c r="AD29" s="85"/>
@@ -13449,8 +13452,8 @@
       <c r="A30" s="14">
         <v>1.5</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="94"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="15">
         <v>1</v>
       </c>
@@ -13533,48 +13536,48 @@
       <c r="A31" s="4">
         <v>14</v>
       </c>
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="103" t="s">
+      <c r="D31" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103" t="s">
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103" t="s">
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="104" t="s">
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="103" t="s">
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="U31" s="103"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="114" t="s">
+      <c r="U31" s="106"/>
+      <c r="V31" s="106"/>
+      <c r="W31" s="106"/>
+      <c r="X31" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="Y31" s="114"/>
-      <c r="Z31" s="114"/>
-      <c r="AA31" s="114"/>
+      <c r="Y31" s="99"/>
+      <c r="Z31" s="99"/>
+      <c r="AA31" s="99"/>
       <c r="AB31" s="85"/>
       <c r="AC31" s="85"/>
       <c r="AD31" s="85"/>
@@ -13584,8 +13587,8 @@
       <c r="A32" s="14">
         <v>1.6</v>
       </c>
-      <c r="B32" s="95"/>
-      <c r="C32" s="94"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="15">
         <v>1</v>
       </c>
@@ -13668,48 +13671,48 @@
       <c r="A33" s="4">
         <v>15</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="94" t="s">
+      <c r="C33" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="103" t="s">
+      <c r="D33" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103" t="s">
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103" t="s">
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103" t="s">
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="103" t="s">
+      <c r="Q33" s="106"/>
+      <c r="R33" s="106"/>
+      <c r="S33" s="106"/>
+      <c r="T33" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="114" t="s">
+      <c r="U33" s="106"/>
+      <c r="V33" s="106"/>
+      <c r="W33" s="106"/>
+      <c r="X33" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="Y33" s="114"/>
-      <c r="Z33" s="114"/>
-      <c r="AA33" s="114"/>
+      <c r="Y33" s="99"/>
+      <c r="Z33" s="99"/>
+      <c r="AA33" s="99"/>
       <c r="AB33" s="85"/>
       <c r="AC33" s="85"/>
       <c r="AD33" s="85"/>
@@ -13719,8 +13722,8 @@
       <c r="A34" s="14">
         <v>1.6</v>
       </c>
-      <c r="B34" s="95"/>
-      <c r="C34" s="94"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="15">
         <v>1</v>
       </c>
@@ -13803,48 +13806,48 @@
       <c r="A35" s="4">
         <v>16</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="94" t="s">
+      <c r="C35" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="103" t="s">
+      <c r="D35" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="104" t="s">
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="103" t="s">
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="104" t="s">
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="104"/>
-      <c r="T35" s="104" t="s">
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="103"/>
+      <c r="T35" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="U35" s="104"/>
-      <c r="V35" s="104"/>
-      <c r="W35" s="104"/>
-      <c r="X35" s="107" t="s">
+      <c r="U35" s="103"/>
+      <c r="V35" s="103"/>
+      <c r="W35" s="103"/>
+      <c r="X35" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="Y35" s="107"/>
-      <c r="Z35" s="107"/>
-      <c r="AA35" s="107"/>
+      <c r="Y35" s="98"/>
+      <c r="Z35" s="98"/>
+      <c r="AA35" s="98"/>
       <c r="AB35" s="85"/>
       <c r="AC35" s="85"/>
       <c r="AD35" s="85"/>
@@ -13854,8 +13857,8 @@
       <c r="A36" s="14">
         <v>1.5</v>
       </c>
-      <c r="B36" s="95"/>
-      <c r="C36" s="94"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="109"/>
       <c r="D36" s="15">
         <v>1</v>
       </c>
@@ -13938,48 +13941,48 @@
       <c r="A37" s="4">
         <v>17</v>
       </c>
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="94" t="s">
+      <c r="C37" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101" t="s">
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="104" t="s">
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="M37" s="104"/>
-      <c r="N37" s="104"/>
-      <c r="O37" s="104"/>
-      <c r="P37" s="104" t="s">
+      <c r="M37" s="103"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="103"/>
+      <c r="P37" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="Q37" s="104"/>
-      <c r="R37" s="104"/>
-      <c r="S37" s="104"/>
-      <c r="T37" s="104" t="s">
+      <c r="Q37" s="103"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="103"/>
+      <c r="T37" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="U37" s="104"/>
-      <c r="V37" s="104"/>
-      <c r="W37" s="104"/>
-      <c r="X37" s="107" t="s">
+      <c r="U37" s="103"/>
+      <c r="V37" s="103"/>
+      <c r="W37" s="103"/>
+      <c r="X37" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="Y37" s="107"/>
-      <c r="Z37" s="107"/>
-      <c r="AA37" s="107"/>
+      <c r="Y37" s="98"/>
+      <c r="Z37" s="98"/>
+      <c r="AA37" s="98"/>
       <c r="AB37" s="85"/>
       <c r="AC37" s="85"/>
       <c r="AD37" s="85"/>
@@ -13989,8 +13992,8 @@
       <c r="A38" s="31">
         <v>1.6</v>
       </c>
-      <c r="B38" s="95"/>
-      <c r="C38" s="94"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="109"/>
       <c r="D38" s="15">
         <v>0</v>
       </c>
@@ -14073,48 +14076,48 @@
       <c r="A39" s="4">
         <v>18</v>
       </c>
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="94" t="s">
+      <c r="C39" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="101" t="s">
+      <c r="D39" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101" t="s">
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="104" t="s">
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="104" t="s">
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="Q39" s="104"/>
-      <c r="R39" s="104"/>
-      <c r="S39" s="104"/>
-      <c r="T39" s="104" t="s">
+      <c r="Q39" s="103"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="103"/>
+      <c r="T39" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="U39" s="104"/>
-      <c r="V39" s="104"/>
-      <c r="W39" s="104"/>
-      <c r="X39" s="107" t="s">
+      <c r="U39" s="103"/>
+      <c r="V39" s="103"/>
+      <c r="W39" s="103"/>
+      <c r="X39" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="Y39" s="107"/>
-      <c r="Z39" s="107"/>
-      <c r="AA39" s="107"/>
+      <c r="Y39" s="98"/>
+      <c r="Z39" s="98"/>
+      <c r="AA39" s="98"/>
       <c r="AB39" s="85"/>
       <c r="AC39" s="85"/>
       <c r="AD39" s="85"/>
@@ -14124,8 +14127,8 @@
       <c r="A40" s="31">
         <v>1.6</v>
       </c>
-      <c r="B40" s="95"/>
-      <c r="C40" s="94"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="109"/>
       <c r="D40" s="15">
         <v>0</v>
       </c>
@@ -14208,48 +14211,48 @@
       <c r="A41" s="4">
         <v>19</v>
       </c>
-      <c r="B41" s="95" t="s">
+      <c r="B41" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="101" t="s">
+      <c r="D41" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101" t="s">
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="104" t="s">
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="M41" s="104"/>
-      <c r="N41" s="104"/>
-      <c r="O41" s="104"/>
-      <c r="P41" s="103" t="s">
+      <c r="M41" s="103"/>
+      <c r="N41" s="103"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="Q41" s="103"/>
-      <c r="R41" s="103"/>
-      <c r="S41" s="103"/>
-      <c r="T41" s="103" t="s">
+      <c r="Q41" s="106"/>
+      <c r="R41" s="106"/>
+      <c r="S41" s="106"/>
+      <c r="T41" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="U41" s="103"/>
-      <c r="V41" s="103"/>
-      <c r="W41" s="103"/>
-      <c r="X41" s="114" t="s">
+      <c r="U41" s="106"/>
+      <c r="V41" s="106"/>
+      <c r="W41" s="106"/>
+      <c r="X41" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="Y41" s="114"/>
-      <c r="Z41" s="114"/>
-      <c r="AA41" s="114"/>
+      <c r="Y41" s="99"/>
+      <c r="Z41" s="99"/>
+      <c r="AA41" s="99"/>
       <c r="AB41" s="85"/>
       <c r="AC41" s="85"/>
       <c r="AD41" s="85"/>
@@ -14259,8 +14262,8 @@
       <c r="A42" s="31">
         <v>1.5</v>
       </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="94"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="109"/>
       <c r="D42" s="15">
         <v>0</v>
       </c>
@@ -14343,48 +14346,48 @@
       <c r="A43" s="4">
         <v>20</v>
       </c>
-      <c r="B43" s="95" t="s">
+      <c r="B43" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="94" t="s">
+      <c r="C43" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="103" t="s">
+      <c r="D43" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="104" t="s">
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="I43" s="104"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104"/>
-      <c r="L43" s="104" t="s">
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="M43" s="104"/>
-      <c r="N43" s="104"/>
-      <c r="O43" s="104"/>
-      <c r="P43" s="104" t="s">
+      <c r="M43" s="103"/>
+      <c r="N43" s="103"/>
+      <c r="O43" s="103"/>
+      <c r="P43" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="Q43" s="104"/>
-      <c r="R43" s="104"/>
-      <c r="S43" s="104"/>
-      <c r="T43" s="104" t="s">
+      <c r="Q43" s="103"/>
+      <c r="R43" s="103"/>
+      <c r="S43" s="103"/>
+      <c r="T43" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="U43" s="104"/>
-      <c r="V43" s="104"/>
-      <c r="W43" s="104"/>
-      <c r="X43" s="107" t="s">
+      <c r="U43" s="103"/>
+      <c r="V43" s="103"/>
+      <c r="W43" s="103"/>
+      <c r="X43" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="Y43" s="107"/>
-      <c r="Z43" s="107"/>
-      <c r="AA43" s="107"/>
+      <c r="Y43" s="98"/>
+      <c r="Z43" s="98"/>
+      <c r="AA43" s="98"/>
       <c r="AB43" s="85"/>
       <c r="AC43" s="85"/>
       <c r="AD43" s="85"/>
@@ -14394,8 +14397,8 @@
       <c r="A44" s="31">
         <v>1.6</v>
       </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="94"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="15">
         <v>1</v>
       </c>
@@ -14586,48 +14589,48 @@
       <c r="C46" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="110">
+      <c r="D46" s="94">
         <f>SUM(D45:G45)</f>
         <v>14</v>
       </c>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="110">
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="94">
         <f t="shared" ref="H46" si="21">SUM(H45:K45)</f>
         <v>13.2</v>
       </c>
-      <c r="I46" s="111"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="111"/>
-      <c r="L46" s="110">
+      <c r="I46" s="102"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="94">
         <f t="shared" ref="L46" si="22">SUM(L45:O45)</f>
         <v>17.900000000000002</v>
       </c>
-      <c r="M46" s="111"/>
-      <c r="N46" s="111"/>
-      <c r="O46" s="111"/>
-      <c r="P46" s="110">
+      <c r="M46" s="102"/>
+      <c r="N46" s="102"/>
+      <c r="O46" s="102"/>
+      <c r="P46" s="94">
         <f t="shared" ref="P46" si="23">SUM(P45:S45)</f>
         <v>18.599999999999998</v>
       </c>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="111"/>
-      <c r="S46" s="111"/>
-      <c r="T46" s="110">
+      <c r="Q46" s="102"/>
+      <c r="R46" s="102"/>
+      <c r="S46" s="102"/>
+      <c r="T46" s="94">
         <f t="shared" ref="T46" si="24">SUM(T45:W45)</f>
         <v>18.400000000000002</v>
       </c>
-      <c r="U46" s="110"/>
-      <c r="V46" s="110"/>
-      <c r="W46" s="110"/>
-      <c r="X46" s="110">
+      <c r="U46" s="94"/>
+      <c r="V46" s="94"/>
+      <c r="W46" s="94"/>
+      <c r="X46" s="94">
         <f t="shared" ref="X46" si="25">SUM(X45:AA45)</f>
         <v>16.400000000000002</v>
       </c>
-      <c r="Y46" s="110"/>
-      <c r="Z46" s="110"/>
-      <c r="AA46" s="110"/>
+      <c r="Y46" s="94"/>
+      <c r="Z46" s="94"/>
+      <c r="AA46" s="94"/>
       <c r="AB46" s="83"/>
       <c r="AC46" s="83"/>
       <c r="AD46" s="83"/>
@@ -14642,48 +14645,48 @@
       <c r="C47" s="70">
         <v>20.8</v>
       </c>
-      <c r="D47" s="108">
+      <c r="D47" s="95">
         <f>D46/C47</f>
         <v>0.67307692307692302</v>
       </c>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108">
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95">
         <f>H46/C47</f>
         <v>0.63461538461538458</v>
       </c>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="108">
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95">
         <f>L46/C47</f>
         <v>0.86057692307692313</v>
       </c>
-      <c r="M47" s="108"/>
-      <c r="N47" s="108"/>
-      <c r="O47" s="108"/>
-      <c r="P47" s="108">
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="95">
         <f>P46/C47</f>
         <v>0.89423076923076905</v>
       </c>
-      <c r="Q47" s="108"/>
-      <c r="R47" s="108"/>
-      <c r="S47" s="108"/>
-      <c r="T47" s="109">
+      <c r="Q47" s="95"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="101">
         <f>T46/C47</f>
         <v>0.88461538461538469</v>
       </c>
-      <c r="U47" s="109"/>
-      <c r="V47" s="109"/>
-      <c r="W47" s="109"/>
-      <c r="X47" s="108">
+      <c r="U47" s="101"/>
+      <c r="V47" s="101"/>
+      <c r="W47" s="101"/>
+      <c r="X47" s="95">
         <f>X46/C47</f>
         <v>0.78846153846153855</v>
       </c>
-      <c r="Y47" s="108"/>
-      <c r="Z47" s="108"/>
-      <c r="AA47" s="108"/>
+      <c r="Y47" s="95"/>
+      <c r="Z47" s="95"/>
+      <c r="AA47" s="95"/>
       <c r="AB47" s="84"/>
       <c r="AC47" s="84"/>
       <c r="AD47" s="84"/>
@@ -14691,11 +14694,11 @@
       <c r="AF47"/>
     </row>
     <row r="48" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="114"/>
       <c r="L48" s="12"/>
       <c r="M48" s="21"/>
       <c r="N48" s="23"/>
@@ -14791,7 +14794,7 @@
       <c r="AA51" s="53"/>
     </row>
     <row r="52" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C52" s="97" t="s">
+      <c r="C52" s="113" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="76" t="s">
@@ -14836,7 +14839,7 @@
       <c r="AA52" s="53"/>
     </row>
     <row r="53" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C53" s="97"/>
+      <c r="C53" s="113"/>
       <c r="D53" s="76" t="s">
         <v>31</v>
       </c>
@@ -14868,7 +14871,9 @@
       <c r="L53" s="52"/>
       <c r="M53" s="41"/>
       <c r="N53" s="42"/>
-      <c r="O53" s="51"/>
+      <c r="O53" s="51" t="s">
+        <v>174</v>
+      </c>
       <c r="P53" s="52"/>
       <c r="Q53" s="41"/>
       <c r="R53" s="42"/>
@@ -14879,7 +14884,7 @@
       <c r="AA53" s="53"/>
     </row>
     <row r="54" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C54" s="97" t="s">
+      <c r="C54" s="113" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="76" t="s">
@@ -14924,7 +14929,7 @@
       <c r="AA54" s="53"/>
     </row>
     <row r="55" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C55" s="97"/>
+      <c r="C55" s="113"/>
       <c r="D55" s="76" t="s">
         <v>31</v>
       </c>
@@ -15047,7 +15052,7 @@
       <c r="AA58" s="53"/>
     </row>
     <row r="59" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C59" s="97" t="s">
+      <c r="C59" s="113" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="76" t="s">
@@ -15092,7 +15097,7 @@
       <c r="AA59" s="53"/>
     </row>
     <row r="60" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C60" s="97"/>
+      <c r="C60" s="113"/>
       <c r="D60" s="76" t="s">
         <v>31</v>
       </c>
@@ -15312,6 +15317,168 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="186">
+    <mergeCell ref="D2:S2"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="P11:S11"/>
     <mergeCell ref="X46:AA46"/>
     <mergeCell ref="X47:AA47"/>
     <mergeCell ref="T2:AA2"/>
@@ -15336,168 +15503,6 @@
     <mergeCell ref="X5:AA5"/>
     <mergeCell ref="X7:AA7"/>
     <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D2:S2"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B41:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
